--- a/cbrunner/Parameters/Parameters_Facilities.xlsx
+++ b/cbrunner/Parameters/Parameters_Facilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF686E9D-D639-42ED-A047-F4A216B5CD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5370657-A001-4AAB-8DB7-26DCFBAFB239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="14148" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zone" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -167,6 +167,66 @@
   </si>
   <si>
     <t>Victoria</t>
+  </si>
+  <si>
+    <t>Burnaby Mountain District Energy</t>
+  </si>
+  <si>
+    <t>Burnaby</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>District Heating Connection</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Simon Fraser University</t>
+  </si>
+  <si>
+    <t>Year Start</t>
+  </si>
+  <si>
+    <t>Year End</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost Facility </t>
+  </si>
+  <si>
+    <t>https://www.corix.com/news/detail/2021/06/10/biomass-plant-powers-up-sfu-burnaby-univercity</t>
+  </si>
+  <si>
+    <t>Old Massett Village Council</t>
+  </si>
+  <si>
+    <t>Old Massett</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>RNG</t>
+  </si>
+  <si>
+    <t>Navius CAP - Total Bioenergy</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Emissions (tCO2e/yr)</t>
+  </si>
+  <si>
+    <t>Navius CAP - Bioenergy (from forest)</t>
+  </si>
+  <si>
+    <t>Navius CAP - Bioenergy (from municipal waste systems)</t>
   </si>
 </sst>
 </file>
@@ -523,26 +583,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E19" sqref="E19:M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -565,21 +627,37 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -597,18 +675,22 @@
         <v>126.8</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="4"/>
+      <c r="M2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q2" s="4"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f>A2+1</f>
         <v>2</v>
@@ -627,18 +709,22 @@
         <v>127</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="L3" s="4"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3" s="4"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>3</v>
@@ -657,18 +743,22 @@
         <v>303</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" s="4"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -687,18 +777,22 @@
         <v>1</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="L5" s="4"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="4"/>
+      <c r="M5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5" s="4"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -717,18 +811,22 @@
         <v>96</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="L6" s="4"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="4"/>
+      <c r="M6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" s="4"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -747,18 +845,22 @@
         <v>3.5</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="L7" s="4"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="4"/>
+      <c r="M7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7" s="4"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -777,18 +879,22 @@
         <v>288</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="L8" s="4"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -807,18 +913,22 @@
         <v>220</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="L9" s="4"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="4"/>
+      <c r="M9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9" s="4"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -837,18 +947,22 @@
         <v>303</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="L10" s="4"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="4"/>
+      <c r="M10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10" s="4"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -867,18 +981,22 @@
         <v>209</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="L11" s="4"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="4"/>
+      <c r="M11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q11" s="4"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -897,18 +1015,22 @@
         <v>226</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="L12" s="4"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="4"/>
+      <c r="M12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q12" s="4"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -927,18 +1049,22 @@
         <v>73</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="L13" s="4"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="4"/>
+      <c r="M13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q13" s="4"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -957,18 +1083,22 @@
         <v>159</v>
       </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="L14" s="4"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="4"/>
+      <c r="M14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q14" s="4"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -987,18 +1117,22 @@
         <v>105</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="L15" s="4"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="4"/>
+      <c r="M15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q15" s="4"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1017,18 +1151,22 @@
         <v>172</v>
       </c>
       <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="4"/>
+      <c r="M16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16" s="4"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1047,18 +1185,22 @@
         <v>182</v>
       </c>
       <c r="H17" s="3"/>
-      <c r="I17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="L17" s="4"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="4"/>
+      <c r="M17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17" s="4"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1076,11 +1218,15 @@
       <c r="G18" s="3">
         <v>388</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H18" s="3"/>
+      <c r="K18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1094,14 +1240,17 @@
       <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>29</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M19" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1115,14 +1264,17 @@
       <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>29</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M20" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1142,8 +1294,11 @@
       <c r="F21" s="3">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M21" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1157,14 +1312,17 @@
       <c r="D22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>39</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M22" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1178,81 +1336,153 @@
       <c r="D23" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M23" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24">
+        <v>33</v>
+      </c>
+      <c r="K24" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N24" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D26" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N17">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P17">
     <sortCondition ref="A2:A17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1266,7 +1496,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1278,7 +1508,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cbrunner/Parameters/Parameters_Facilities.xlsx
+++ b/cbrunner/Parameters/Parameters_Facilities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5370657-A001-4AAB-8DB7-26DCFBAFB239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3114F0F1-194F-4B7F-95B2-CF81A1C76C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zone" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -214,27 +214,23 @@
     <t>RNG</t>
   </si>
   <si>
-    <t>Navius CAP - Total Bioenergy</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Emissions (tCO2e/yr)</t>
-  </si>
-  <si>
-    <t>Navius CAP - Bioenergy (from forest)</t>
-  </si>
-  <si>
-    <t>Navius CAP - Bioenergy (from municipal waste systems)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -264,12 +260,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -278,6 +268,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,648 +582,652 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:M30"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <selection sqref="A1:XFD1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="5" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
         <v>20.399999999999999</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
         <v>126.8</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
         <v>100</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
         <v>127</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
         <v>40</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
         <v>303</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
         <v>12</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
         <v>96</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
         <v>7.5</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
         <v>3.5</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
         <v>76</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
         <v>288</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
         <v>36</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
         <v>220</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
         <v>40</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
         <v>303</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
         <v>55</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
         <v>209</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
         <v>112</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
         <v>226</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
         <v>32</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
         <v>73</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
         <v>95</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1">
         <v>159</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
         <v>60</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
         <v>105</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
         <v>61</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
         <v>172</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1">
         <v>51</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
         <v>182</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1">
         <v>66</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
         <v>388</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="K18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="H18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -1237,7 +1237,7 @@
       <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I19" t="s">
@@ -1246,12 +1246,12 @@
       <c r="K19" t="s">
         <v>32</v>
       </c>
-      <c r="M19" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="M19" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -1261,7 +1261,7 @@
       <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I20" t="s">
@@ -1270,12 +1270,12 @@
       <c r="K20" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="M20" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1285,21 +1285,21 @@
       <c r="C21" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="1">
         <v>2</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>2.4</v>
       </c>
-      <c r="M21" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="M21" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -1309,7 +1309,7 @@
       <c r="C22" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K22" t="s">
@@ -1318,12 +1318,12 @@
       <c r="L22" t="s">
         <v>41</v>
       </c>
-      <c r="M22" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="M22" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -1333,15 +1333,15 @@
       <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="M23" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -1351,7 +1351,7 @@
       <c r="C24" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J24">
@@ -1363,15 +1363,15 @@
       <c r="L24" t="s">
         <v>49</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="3">
         <v>2021</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -1381,102 +1381,69 @@
       <c r="C25" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="3">
         <v>0.72</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" t="s">
-        <v>60</v>
-      </c>
-      <c r="H28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G31" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -1496,7 +1463,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1508,7 +1475,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cbrunner/Parameters/Parameters_Facilities.xlsx
+++ b/cbrunner/Parameters/Parameters_Facilities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3114F0F1-194F-4B7F-95B2-CF81A1C76C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A5671B-8BBE-4D1F-BD5F-B8FF862FE399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="984" yWindow="0" windowWidth="18204" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zone" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Skookumchuck Power</t>
   </si>
   <si>
-    <t>NWE (Williams Lake)</t>
-  </si>
-  <si>
     <t>Lhoosk’uz Dené Nation</t>
   </si>
   <si>
@@ -215,13 +212,73 @@
   </si>
   <si>
     <t>Emissions (tCO2e/yr)</t>
+  </si>
+  <si>
+    <t>Williams Lake</t>
+  </si>
+  <si>
+    <t>Atlantic Power NEW</t>
+  </si>
+  <si>
+    <t>Castlegar</t>
+  </si>
+  <si>
+    <t>Fort St. James</t>
+  </si>
+  <si>
+    <t>Kamloops</t>
+  </si>
+  <si>
+    <t>Merritt</t>
+  </si>
+  <si>
+    <t>Prince George</t>
+  </si>
+  <si>
+    <t>Canfor Pulp Ltd.</t>
+  </si>
+  <si>
+    <t>Armstrong Wood Waste Co-Gen</t>
+  </si>
+  <si>
+    <t>Armstrong</t>
+  </si>
+  <si>
+    <t>Powell River Generation</t>
+  </si>
+  <si>
+    <t>Catalyst Paper</t>
+  </si>
+  <si>
+    <t>Powell River</t>
+  </si>
+  <si>
+    <t>Quesnel</t>
+  </si>
+  <si>
+    <t>Nanaimo</t>
+  </si>
+  <si>
+    <t>Nanaimo Forest Products</t>
+  </si>
+  <si>
+    <t>Domtar</t>
+  </si>
+  <si>
+    <t>Port Mellon</t>
+  </si>
+  <si>
+    <t>Howe Sound Pulp and Paper Corporation</t>
+  </si>
+  <si>
+    <t>Atlantic Power Preferred Equity Ltd.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +293,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF191919"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -258,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -275,6 +338,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,20 +645,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
     <col min="8" max="8" width="13.5546875" customWidth="1"/>
     <col min="11" max="11" width="11.109375" customWidth="1"/>
     <col min="12" max="12" width="8.109375" customWidth="1"/>
@@ -612,49 +676,49 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="P1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -663,6 +727,9 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -678,11 +745,13 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="M2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="1"/>
@@ -698,6 +767,9 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
@@ -712,11 +784,11 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="1"/>
@@ -732,6 +804,9 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -746,11 +821,11 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="1"/>
@@ -780,11 +855,11 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="1"/>
@@ -814,11 +889,11 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="1"/>
@@ -848,11 +923,11 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="1"/>
@@ -868,6 +943,9 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
@@ -882,11 +960,13 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="M8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="1"/>
@@ -916,11 +996,11 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="1"/>
@@ -936,6 +1016,9 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
@@ -950,11 +1033,11 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="1"/>
@@ -970,6 +1053,9 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
@@ -984,11 +1070,13 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="M11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="1"/>
@@ -1004,6 +1092,9 @@
       <c r="B12" t="s">
         <v>15</v>
       </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1018,11 +1109,13 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="M12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="1"/>
@@ -1052,11 +1145,11 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="1"/>
@@ -1086,11 +1179,11 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="1"/>
@@ -1106,6 +1199,9 @@
       <c r="B15" t="s">
         <v>18</v>
       </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1120,11 +1216,13 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="M15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="1"/>
@@ -1140,6 +1238,9 @@
       <c r="B16" t="s">
         <v>19</v>
       </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1154,11 +1255,11 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="1"/>
@@ -1188,11 +1289,11 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="1"/>
@@ -1206,7 +1307,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>4</v>
@@ -1220,10 +1324,13 @@
       </c>
       <c r="H18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -1232,22 +1339,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>46</v>
+        <v>71</v>
+      </c>
+      <c r="L19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
@@ -1256,22 +1354,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
@@ -1280,22 +1378,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2.4</v>
+        <v>22</v>
+      </c>
+      <c r="I21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" t="s">
+        <v>31</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
@@ -1304,22 +1402,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" t="s">
-        <v>39</v>
-      </c>
-      <c r="L22" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2.4</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
@@ -1328,16 +1426,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="K23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" t="s">
+        <v>40</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
@@ -1346,28 +1450,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24">
-        <v>33</v>
-      </c>
-      <c r="K24" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N24" s="3">
-        <v>2021</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
@@ -1376,13 +1468,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0.72</v>
+        <v>44</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25">
+        <v>33</v>
+      </c>
+      <c r="K25" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" t="s">
+        <v>48</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" s="3">
+        <v>2021</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
@@ -1390,14 +1497,23 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>58</v>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.72</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">

--- a/cbrunner/Parameters/Parameters_Facilities.xlsx
+++ b/cbrunner/Parameters/Parameters_Facilities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34B06D5-D476-4754-BFA8-7766869FCABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4B306C-908D-45D2-865E-F0F13D6498D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="60" windowWidth="11115" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zone" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="112">
   <si>
     <t>Name</t>
   </si>
@@ -348,6 +348,33 @@
   </si>
   <si>
     <t>Lillooet</t>
+  </si>
+  <si>
+    <t>Squamish</t>
+  </si>
+  <si>
+    <t>https://torchlightbioresources.com/wp-content/uploads/2024/02/Bioheat_Database_2023_Public-1.pdf</t>
+  </si>
+  <si>
+    <t>Heating</t>
+  </si>
+  <si>
+    <t>Squamish Sawmill</t>
+  </si>
+  <si>
+    <t>Hogfuel</t>
+  </si>
+  <si>
+    <t>Chips</t>
+  </si>
+  <si>
+    <t>Penticton Light Industrial</t>
+  </si>
+  <si>
+    <t>Penticton</t>
+  </si>
+  <si>
+    <t>Secondary manufacturing</t>
   </si>
 </sst>
 </file>
@@ -441,7 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -455,10 +482,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -473,13 +497,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -802,35 +826,35 @@
   <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" customWidth="1"/>
-    <col min="13" max="13" width="7.109375" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" customWidth="1"/>
-    <col min="15" max="15" width="8.109375" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="4" customFormat="1" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -840,7 +864,7 @@
       <c r="C1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -892,1392 +916,1412 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+    <row r="2" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>50.389615999999997</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>-119.22595200000001</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>20.399999999999999</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10">
         <v>126.8</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="12">
         <v>2001</v>
       </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11" t="s">
+      <c r="R2" s="10"/>
+      <c r="S2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="12" t="s">
         <v>83</v>
       </c>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+    <row r="3" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>49.335039000000002</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>-117.72264699999999</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10">
         <v>100</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10">
         <v>127</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11" t="s">
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13" t="s">
+      <c r="O3" s="12"/>
+      <c r="P3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="13"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="12"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+    <row r="4" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>-124.21795899999999</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11">
+      <c r="G4" s="10"/>
+      <c r="H4" s="10">
         <v>40</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11">
+      <c r="I4" s="10"/>
+      <c r="J4" s="10">
         <v>303</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11" t="s">
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13" t="s">
+      <c r="O4" s="12"/>
+      <c r="P4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="13"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="12"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+    <row r="5" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="8">
+      <c r="C5" s="5"/>
+      <c r="D5" s="7">
         <v>57.426482999999998</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>-125.633369</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10">
         <v>1</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10">
         <v>1</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11" t="s">
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13" t="s">
+      <c r="O5" s="12"/>
+      <c r="P5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="13"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="12"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+    <row r="6" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>-124.750905</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>12</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11">
+      <c r="I6" s="10"/>
+      <c r="J6" s="10">
         <v>96</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11" t="s">
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13" t="s">
+      <c r="O6" s="12"/>
+      <c r="P6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="13"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="12"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+    <row r="7" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="9">
+      <c r="C7" s="5"/>
+      <c r="D7" s="8">
         <v>51.313701999999999</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>-116.98279100000001</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
+      <c r="G7" s="10"/>
+      <c r="H7" s="10">
         <v>7.5</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11">
+      <c r="I7" s="10"/>
+      <c r="J7" s="10">
         <v>3.5</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13" t="s">
+      <c r="O7" s="12"/>
+      <c r="P7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="13"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="12"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+    <row r="8" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>50.690272</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>-120.39904799999999</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
         <v>76</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10">
         <v>288</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11" t="s">
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="P8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="13"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="12"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+    <row r="9" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>-123.181303</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10">
         <v>36</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11">
+      <c r="I9" s="10"/>
+      <c r="J9" s="10">
         <v>220</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11" t="s">
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13" t="s">
+      <c r="O9" s="12"/>
+      <c r="P9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="12">
         <v>2015</v>
       </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="13"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="12"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+    <row r="10" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>50.097706000000002</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>-120.795919</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11">
+      <c r="G10" s="10"/>
+      <c r="H10" s="10">
         <v>40</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11">
+      <c r="I10" s="10"/>
+      <c r="J10" s="10">
         <v>303</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11" t="s">
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13" t="s">
+      <c r="O10" s="12"/>
+      <c r="P10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="13"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="12"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+    <row r="11" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>-123.85688500000001</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
         <v>55</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10">
         <v>209</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11" t="s">
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="13"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="12"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+    <row r="12" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>49.521332999999998</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>-123.486592</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
         <v>112</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11">
+      <c r="I12" s="10"/>
+      <c r="J12" s="10">
         <v>226</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11" t="s">
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="O12" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="13" t="s">
+      <c r="P12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="13"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="12"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+    <row r="13" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="8">
+      <c r="C13" s="5"/>
+      <c r="D13" s="7">
         <v>53.923385000000003</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>-122.697093</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11">
+      <c r="G13" s="10"/>
+      <c r="H13" s="10">
         <v>32</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11">
+      <c r="I13" s="10"/>
+      <c r="J13" s="10">
         <v>73</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11" t="s">
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13" t="s">
+      <c r="O13" s="12"/>
+      <c r="P13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="13"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="12"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+    <row r="14" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="8">
+      <c r="C14" s="5"/>
+      <c r="D14" s="7">
         <v>53.977826999999998</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>-122.69336800000001</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11">
+      <c r="G14" s="10"/>
+      <c r="H14" s="10">
         <v>95</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11">
+      <c r="I14" s="10"/>
+      <c r="J14" s="10">
         <v>159</v>
       </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11" t="s">
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13" t="s">
+      <c r="O14" s="12"/>
+      <c r="P14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="13"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="12"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+    <row r="15" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>53.922854999999998</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>-122.69325499999999</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
         <v>60</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11">
+      <c r="I15" s="10"/>
+      <c r="J15" s="10">
         <v>105</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11" t="s">
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P15" s="13" t="s">
+      <c r="P15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="13"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="12"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+    <row r="16" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>52.997517000000002</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>-122.485237</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11">
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
         <v>61</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11">
+      <c r="I16" s="10"/>
+      <c r="J16" s="10">
         <v>172</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11" t="s">
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13" t="s">
+      <c r="O16" s="12"/>
+      <c r="P16" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="13"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="12"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+    <row r="17" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>49.916048000000004</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>-115.763859</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11">
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
         <v>51</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11">
+      <c r="I17" s="10"/>
+      <c r="J17" s="10">
         <v>182</v>
       </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11" t="s">
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="13" t="s">
+      <c r="O17" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="P17" s="13" t="s">
+      <c r="P17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="13"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="12"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+    <row r="18" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>52.161113</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>-122.171398</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11">
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
         <v>66</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11">
+      <c r="I18" s="10"/>
+      <c r="J18" s="10">
         <v>388</v>
       </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="11" t="s">
+      <c r="K18" s="10"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O18" s="14" t="s">
+      <c r="O18" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P18" s="13" t="s">
+      <c r="P18" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-    </row>
-    <row r="19" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>49.872698999999997</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>-124.5549</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="11">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="10">
         <v>36</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6" t="s">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-    </row>
-    <row r="20" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>52.973520999999998</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>-122.510744</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="6">
+      <c r="G20" s="10"/>
+      <c r="H20" s="5">
         <v>0</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6" t="s">
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6" t="s">
+      <c r="M20" s="5"/>
+      <c r="N20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O20" s="6"/>
-      <c r="P20" s="13" t="s">
+      <c r="O20" s="5"/>
+      <c r="P20" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-    </row>
-    <row r="21" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>59.294998</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>-129.28986499999999</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="6">
+      <c r="G21" s="10"/>
+      <c r="H21" s="5">
         <v>0</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6" t="s">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6" t="s">
+      <c r="M21" s="5"/>
+      <c r="N21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="13" t="s">
+      <c r="O21" s="5"/>
+      <c r="P21" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-    </row>
-    <row r="22" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>49.259712999999998</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>-123.25449999999999</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11">
+      <c r="G22" s="10"/>
+      <c r="H22" s="10">
         <v>2</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="10">
         <v>2.4</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="13" t="s">
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-    </row>
-    <row r="23" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>50.998106</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>-118.19609800000001</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>0</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6" t="s">
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="O23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="P23" s="13" t="s">
+      <c r="P23" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-    </row>
-    <row r="24" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>48.432473000000002</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>-123.378722</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="6">
+      <c r="G24" s="10"/>
+      <c r="H24" s="5">
         <v>0</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="13" t="s">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6" t="s">
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="T24" s="6"/>
-    </row>
-    <row r="25" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>49.269713000000003</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>-122.929186</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="6">
+      <c r="G25" s="10"/>
+      <c r="H25" s="5">
         <v>0</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5">
         <v>33</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="N25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O25" s="6" t="s">
+      <c r="O25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="P25" s="13" t="s">
+      <c r="P25" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="Q25" s="5">
         <v>2021</v>
       </c>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-    </row>
-    <row r="26" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>54.034227000000001</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>-132.17596900000001</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5">
         <v>0.72</v>
       </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-    </row>
-    <row r="27" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>55.723106000000001</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>-121.561746</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <v>13</v>
       </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6">
+      <c r="I27" s="5"/>
+      <c r="J27" s="5">
         <v>88</v>
       </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6" t="s">
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="O27" s="16" t="s">
+      <c r="O27" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6">
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5">
         <v>2015</v>
       </c>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-    </row>
-    <row r="28" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>53.892670000000003</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>-122.815898</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6">
+      <c r="I28" s="5"/>
+      <c r="J28" s="5">
         <v>16.7</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6" t="s">
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="O28" s="17" t="s">
+      <c r="O28" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6">
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5">
         <v>2011</v>
       </c>
-      <c r="R28" s="6"/>
-      <c r="S28" s="17" t="s">
+      <c r="R28" s="5"/>
+      <c r="S28" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="T28" s="6" t="s">
+      <c r="T28" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+    <row r="29" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>50.692174999999999</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>-121.933471</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <v>0.4</v>
       </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6">
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5">
         <v>2011</v>
       </c>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-    </row>
-    <row r="30" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-    </row>
-    <row r="31" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="B30" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="T30" s="5"/>
+    </row>
+    <row r="31" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-    </row>
-    <row r="32" spans="1:21" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="B31" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5">
+        <v>2008</v>
+      </c>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-    </row>
-    <row r="33" spans="1:20" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" spans="1:20" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-    </row>
-    <row r="34" spans="1:20" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" spans="1:20" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-    </row>
-    <row r="35" spans="1:20" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+    </row>
+    <row r="35" spans="1:20" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-    </row>
-    <row r="36" spans="1:20" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:20" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:20" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:20" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:20" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+    </row>
+    <row r="36" spans="1:20" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:20" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:20" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:20" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:20" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S17">
     <sortCondition ref="A2:A17"/>
@@ -2296,7 +2340,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2308,7 +2352,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cbrunner/Parameters/Parameters_Facilities.xlsx
+++ b/cbrunner/Parameters/Parameters_Facilities.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4B306C-908D-45D2-865E-F0F13D6498D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1AEE5C-4C7C-431C-A3B9-9D523B1B6303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="60" windowWidth="11115" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Zone" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -830,7 +830,7 @@
       <selection sqref="A1:XFD1"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
